--- a/Experiment/Orders/PAR06_RUN03.xlsx
+++ b/Experiment/Orders/PAR06_RUN03.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="887" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="959" uniqueCount="261">
   <si>
     <t>Trial</t>
   </si>
@@ -841,23 +841,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K147"/>
+  <dimension ref="A1:K159"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="true"/>
-    <col min="2" max="2" width="15.3046875" customWidth="true"/>
-    <col min="3" max="3" width="16.4609375" customWidth="true"/>
-    <col min="4" max="4" width="20.3828125" customWidth="true"/>
-    <col min="5" max="5" width="20.61328125" customWidth="true"/>
-    <col min="6" max="6" width="9.53515625" customWidth="true"/>
-    <col min="7" max="7" width="5.84375" customWidth="true"/>
-    <col min="8" max="8" width="8.4609375" customWidth="true"/>
-    <col min="9" max="9" width="7.15234375" customWidth="true"/>
-    <col min="10" max="10" width="5.765625" customWidth="true"/>
-    <col min="11" max="11" width="11.3046875" customWidth="true"/>
+    <col min="2" max="2" width="15.42578125" customWidth="true"/>
+    <col min="3" max="3" width="17.140625" customWidth="true"/>
+    <col min="4" max="4" width="20.85546875" customWidth="true"/>
+    <col min="5" max="5" width="21" customWidth="true"/>
+    <col min="6" max="6" width="9.85546875" customWidth="true"/>
+    <col min="7" max="7" width="5.85546875" customWidth="true"/>
+    <col min="8" max="8" width="8.7109375" customWidth="true"/>
+    <col min="9" max="9" width="7.140625" customWidth="true"/>
+    <col min="10" max="10" width="5.5703125" customWidth="true"/>
+    <col min="11" max="11" width="11.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1355,25 +1355,25 @@
         <v>0</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C15" s="0">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F15" s="0" t="b">
         <v>0</v>
       </c>
       <c r="G15" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I15" s="0" t="s">
         <v>237</v>
@@ -1382,24 +1382,24 @@
         <v>237</v>
       </c>
       <c r="K15" s="0">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C16" s="0">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="F16" s="0" t="b">
         <v>0</v>
@@ -1411,30 +1411,30 @@
         <v>233</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="K16" s="0">
-        <v>6</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C17" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="F17" s="0" t="b">
         <v>0</v>
@@ -1446,30 +1446,30 @@
         <v>233</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="K17" s="0">
-        <v>-3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C18" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="F18" s="0" t="b">
         <v>0</v>
@@ -1481,30 +1481,30 @@
         <v>233</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="K18" s="0">
-        <v>4</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C19" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="F19" s="0" t="b">
         <v>0</v>
@@ -1516,30 +1516,30 @@
         <v>233</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="K19" s="0">
-        <v>-3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C20" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="F20" s="0" t="b">
         <v>0</v>
@@ -1551,30 +1551,30 @@
         <v>233</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="K20" s="0">
-        <v>6</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C21" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="F21" s="0" t="b">
         <v>0</v>
@@ -1586,30 +1586,30 @@
         <v>233</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="K21" s="0">
-        <v>-3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C22" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="F22" s="0" t="b">
         <v>0</v>
@@ -1621,30 +1621,30 @@
         <v>233</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="K22" s="0">
-        <v>5</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C23" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="F23" s="0" t="b">
         <v>0</v>
@@ -1656,30 +1656,30 @@
         <v>233</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>237</v>
+        <v>259</v>
       </c>
       <c r="K23" s="0">
-        <v>-3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C24" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="F24" s="0" t="b">
         <v>0</v>
@@ -1691,30 +1691,30 @@
         <v>233</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="K24" s="0">
-        <v>4</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C25" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="F25" s="0" t="b">
         <v>0</v>
@@ -1726,30 +1726,30 @@
         <v>233</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="K25" s="0">
-        <v>-3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C26" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="F26" s="0" t="b">
         <v>0</v>
@@ -1761,83 +1761,83 @@
         <v>233</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="K26" s="0">
-        <v>5</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C27" s="0">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F27" s="0" t="b">
         <v>0</v>
       </c>
       <c r="G27" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>237</v>
+        <v>259</v>
       </c>
       <c r="K27" s="0">
-        <v>-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C28" s="0">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="F28" s="0" t="b">
         <v>0</v>
       </c>
       <c r="G28" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="K28" s="0">
-        <v>9</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="29">
@@ -1845,10 +1845,10 @@
         <v>0</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C29" s="0">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="D29" s="0" t="s">
         <v>93</v>
@@ -1872,24 +1872,24 @@
         <v>237</v>
       </c>
       <c r="K29" s="0">
-        <v>-3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C30" s="0">
         <v>1</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F30" s="0" t="b">
         <v>0</v>
@@ -1901,13 +1901,13 @@
         <v>235</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K30" s="0">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31">
@@ -1947,19 +1947,19 @@
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C32" s="0">
         <v>1</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F32" s="0" t="b">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>235</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J32" s="0" t="s">
         <v>258</v>
@@ -2017,19 +2017,19 @@
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C34" s="0">
         <v>1</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F34" s="0" t="b">
         <v>0</v>
@@ -2041,13 +2041,13 @@
         <v>235</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K34" s="0">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35">
@@ -2087,19 +2087,19 @@
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C36" s="0">
         <v>1</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F36" s="0" t="b">
         <v>0</v>
@@ -2111,13 +2111,13 @@
         <v>235</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K36" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37">
@@ -2157,19 +2157,19 @@
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C38" s="0">
         <v>1</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F38" s="0" t="b">
         <v>0</v>
@@ -2181,7 +2181,7 @@
         <v>235</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J38" s="0" t="s">
         <v>259</v>
@@ -2195,25 +2195,25 @@
         <v>0</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C39" s="0">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="F39" s="0" t="b">
         <v>0</v>
       </c>
       <c r="G39" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I39" s="0" t="s">
         <v>237</v>
@@ -2222,42 +2222,42 @@
         <v>237</v>
       </c>
       <c r="K39" s="0">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C40" s="0">
         <v>1</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F40" s="0" t="b">
         <v>0</v>
       </c>
       <c r="G40" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I40" s="0" t="s">
         <v>255</v>
       </c>
       <c r="J40" s="0" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K40" s="0">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41">
@@ -2268,22 +2268,22 @@
         <v>5</v>
       </c>
       <c r="C41" s="0">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="F41" s="0" t="b">
         <v>0</v>
       </c>
       <c r="G41" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I41" s="0" t="s">
         <v>237</v>
@@ -2297,19 +2297,19 @@
     </row>
     <row r="42">
       <c r="A42" s="0">
+        <v>0</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" s="0">
         <v>20</v>
       </c>
-      <c r="B42" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C42" s="0">
-        <v>1</v>
-      </c>
       <c r="D42" s="0" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="F42" s="0" t="b">
         <v>0</v>
@@ -2321,30 +2321,30 @@
         <v>234</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="K42" s="0">
-        <v>1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C43" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="F43" s="0" t="b">
         <v>0</v>
@@ -2356,30 +2356,30 @@
         <v>234</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="K43" s="0">
-        <v>-3</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C44" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="F44" s="0" t="b">
         <v>0</v>
@@ -2391,30 +2391,30 @@
         <v>234</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="K44" s="0">
-        <v>3</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C45" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="F45" s="0" t="b">
         <v>0</v>
@@ -2426,30 +2426,30 @@
         <v>234</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="J45" s="0" t="s">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="K45" s="0">
-        <v>-3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="C46" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="F46" s="0" t="b">
         <v>0</v>
@@ -2461,30 +2461,30 @@
         <v>234</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="J46" s="0" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="K46" s="0">
-        <v>2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C47" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="F47" s="0" t="b">
         <v>0</v>
@@ -2496,30 +2496,30 @@
         <v>234</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="J47" s="0" t="s">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="K47" s="0">
-        <v>-3</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="C48" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="F48" s="0" t="b">
         <v>0</v>
@@ -2531,30 +2531,30 @@
         <v>234</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J48" s="0" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="K48" s="0">
-        <v>2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C49" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="F49" s="0" t="b">
         <v>0</v>
@@ -2566,30 +2566,30 @@
         <v>234</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="J49" s="0" t="s">
-        <v>237</v>
+        <v>259</v>
       </c>
       <c r="K49" s="0">
-        <v>-3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="C50" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="F50" s="0" t="b">
         <v>0</v>
@@ -2601,153 +2601,153 @@
         <v>234</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="J50" s="0" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="K50" s="0">
-        <v>1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="C51" s="0">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="F51" s="0" t="b">
         <v>0</v>
       </c>
       <c r="G51" s="0">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J51" s="0" t="s">
-        <v>237</v>
+        <v>259</v>
       </c>
       <c r="K51" s="0">
-        <v>-2</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="C52" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>182</v>
+        <v>156</v>
       </c>
       <c r="F52" s="0" t="b">
         <v>0</v>
       </c>
       <c r="G52" s="0">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I52" s="0" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J52" s="0" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="K52" s="0">
-        <v>7</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="C53" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="F53" s="0" t="b">
         <v>0</v>
       </c>
       <c r="G53" s="0">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I53" s="0" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="J53" s="0" t="s">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="K53" s="0">
-        <v>-3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="C54" s="0">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="F54" s="0" t="b">
         <v>0</v>
       </c>
       <c r="G54" s="0">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I54" s="0" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="J54" s="0" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="K54" s="0">
-        <v>7</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="55">
@@ -2755,10 +2755,10 @@
         <v>0</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C55" s="0">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="D55" s="0" t="s">
         <v>93</v>
@@ -2782,24 +2782,24 @@
         <v>237</v>
       </c>
       <c r="K55" s="0">
-        <v>-3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C56" s="0">
         <v>1</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F56" s="0" t="b">
         <v>0</v>
@@ -2811,13 +2811,13 @@
         <v>235</v>
       </c>
       <c r="I56" s="0" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="J56" s="0" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K56" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57">
@@ -2857,19 +2857,19 @@
     </row>
     <row r="58">
       <c r="A58" s="0">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C58" s="0">
         <v>1</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F58" s="0" t="b">
         <v>0</v>
@@ -2881,13 +2881,13 @@
         <v>235</v>
       </c>
       <c r="I58" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="J58" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K58" s="0">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59">
@@ -2927,19 +2927,19 @@
     </row>
     <row r="60">
       <c r="A60" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C60" s="0">
         <v>1</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F60" s="0" t="b">
         <v>0</v>
@@ -2951,13 +2951,13 @@
         <v>235</v>
       </c>
       <c r="I60" s="0" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="J60" s="0" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K60" s="0">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61">
@@ -2997,19 +2997,19 @@
     </row>
     <row r="62">
       <c r="A62" s="0">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C62" s="0">
         <v>1</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F62" s="0" t="b">
         <v>0</v>
@@ -3021,13 +3021,13 @@
         <v>235</v>
       </c>
       <c r="I62" s="0" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="J62" s="0" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K62" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63">
@@ -3035,25 +3035,25 @@
         <v>0</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C63" s="0">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="F63" s="0" t="b">
         <v>0</v>
       </c>
       <c r="G63" s="0">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H63" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I63" s="0" t="s">
         <v>237</v>
@@ -3062,42 +3062,42 @@
         <v>237</v>
       </c>
       <c r="K63" s="0">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="0">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C64" s="0">
         <v>1</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F64" s="0" t="b">
         <v>0</v>
       </c>
       <c r="G64" s="0">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H64" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I64" s="0" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="J64" s="0" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K64" s="0">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65">
@@ -3111,19 +3111,19 @@
         <v>3</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="F65" s="0" t="b">
         <v>0</v>
       </c>
       <c r="G65" s="0">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H65" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I65" s="0" t="s">
         <v>237</v>
@@ -3137,37 +3137,37 @@
     </row>
     <row r="66">
       <c r="A66" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C66" s="0">
         <v>1</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F66" s="0" t="b">
         <v>0</v>
       </c>
       <c r="G66" s="0">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H66" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I66" s="0" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="J66" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K66" s="0">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67">
@@ -3178,22 +3178,22 @@
         <v>5</v>
       </c>
       <c r="C67" s="0">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="F67" s="0" t="b">
         <v>0</v>
       </c>
       <c r="G67" s="0">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H67" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I67" s="0" t="s">
         <v>237</v>
@@ -3207,19 +3207,19 @@
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="C68" s="0">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>190</v>
+        <v>155</v>
       </c>
       <c r="F68" s="0" t="b">
         <v>0</v>
@@ -3231,30 +3231,30 @@
         <v>233</v>
       </c>
       <c r="I68" s="0" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="J68" s="0" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="K68" s="0">
-        <v>5</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="0">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="C69" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>155</v>
+        <v>188</v>
       </c>
       <c r="F69" s="0" t="b">
         <v>0</v>
@@ -3266,30 +3266,30 @@
         <v>233</v>
       </c>
       <c r="I69" s="0" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="J69" s="0" t="s">
-        <v>237</v>
+        <v>259</v>
       </c>
       <c r="K69" s="0">
-        <v>-3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="0">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="C70" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>191</v>
+        <v>155</v>
       </c>
       <c r="F70" s="0" t="b">
         <v>0</v>
@@ -3301,30 +3301,30 @@
         <v>233</v>
       </c>
       <c r="I70" s="0" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="J70" s="0" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="K70" s="0">
-        <v>6</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="0">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="C71" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>155</v>
+        <v>189</v>
       </c>
       <c r="F71" s="0" t="b">
         <v>0</v>
@@ -3336,30 +3336,30 @@
         <v>233</v>
       </c>
       <c r="I71" s="0" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="J71" s="0" t="s">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="K71" s="0">
-        <v>-3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="0">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="C72" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>192</v>
+        <v>155</v>
       </c>
       <c r="F72" s="0" t="b">
         <v>0</v>
@@ -3371,30 +3371,30 @@
         <v>233</v>
       </c>
       <c r="I72" s="0" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="J72" s="0" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="K72" s="0">
-        <v>4</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="0">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="C73" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>155</v>
+        <v>190</v>
       </c>
       <c r="F73" s="0" t="b">
         <v>0</v>
@@ -3406,30 +3406,30 @@
         <v>233</v>
       </c>
       <c r="I73" s="0" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="J73" s="0" t="s">
-        <v>237</v>
+        <v>259</v>
       </c>
       <c r="K73" s="0">
-        <v>-3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="0">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="C74" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>193</v>
+        <v>155</v>
       </c>
       <c r="F74" s="0" t="b">
         <v>0</v>
@@ -3441,223 +3441,223 @@
         <v>233</v>
       </c>
       <c r="I74" s="0" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="J74" s="0" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="K74" s="0">
-        <v>6</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="0">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="C75" s="0">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="F75" s="0" t="b">
         <v>0</v>
       </c>
       <c r="G75" s="0">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H75" s="0" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I75" s="0" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="J75" s="0" t="s">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="K75" s="0">
-        <v>-2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="0">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="C76" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>118</v>
+        <v>79</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>194</v>
+        <v>155</v>
       </c>
       <c r="F76" s="0" t="b">
         <v>0</v>
       </c>
       <c r="G76" s="0">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H76" s="0" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I76" s="0" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="J76" s="0" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="K76" s="0">
-        <v>8</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="0">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="C77" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="F77" s="0" t="b">
         <v>0</v>
       </c>
       <c r="G77" s="0">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H77" s="0" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I77" s="0" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="J77" s="0" t="s">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="K77" s="0">
-        <v>-3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="0">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="C78" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>119</v>
+        <v>79</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>195</v>
+        <v>155</v>
       </c>
       <c r="F78" s="0" t="b">
         <v>0</v>
       </c>
       <c r="G78" s="0">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H78" s="0" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I78" s="0" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="J78" s="0" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="K78" s="0">
-        <v>9</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="0">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="C79" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="F79" s="0" t="b">
         <v>0</v>
       </c>
       <c r="G79" s="0">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H79" s="0" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I79" s="0" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="J79" s="0" t="s">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="K79" s="0">
-        <v>-3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="0">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="C80" s="0">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>196</v>
+        <v>155</v>
       </c>
       <c r="F80" s="0" t="b">
         <v>0</v>
       </c>
       <c r="G80" s="0">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H80" s="0" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I80" s="0" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="J80" s="0" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="K80" s="0">
-        <v>8</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="81">
@@ -3665,10 +3665,10 @@
         <v>0</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C81" s="0">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="D81" s="0" t="s">
         <v>93</v>
@@ -3692,24 +3692,24 @@
         <v>237</v>
       </c>
       <c r="K81" s="0">
-        <v>-3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C82" s="0">
         <v>1</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F82" s="0" t="b">
         <v>0</v>
@@ -3721,13 +3721,13 @@
         <v>235</v>
       </c>
       <c r="I82" s="0" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="J82" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K82" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="83">
@@ -3767,19 +3767,19 @@
     </row>
     <row r="84">
       <c r="A84" s="0">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C84" s="0">
         <v>1</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F84" s="0" t="b">
         <v>0</v>
@@ -3791,7 +3791,7 @@
         <v>235</v>
       </c>
       <c r="I84" s="0" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="J84" s="0" t="s">
         <v>257</v>
@@ -3837,19 +3837,19 @@
     </row>
     <row r="86">
       <c r="A86" s="0">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C86" s="0">
         <v>1</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F86" s="0" t="b">
         <v>0</v>
@@ -3861,13 +3861,13 @@
         <v>235</v>
       </c>
       <c r="I86" s="0" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="J86" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K86" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="87">
@@ -3875,25 +3875,25 @@
         <v>0</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C87" s="0">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="E87" s="0" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="F87" s="0" t="b">
         <v>0</v>
       </c>
       <c r="G87" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H87" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I87" s="0" t="s">
         <v>237</v>
@@ -3902,42 +3902,42 @@
         <v>237</v>
       </c>
       <c r="K87" s="0">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="0">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C88" s="0">
         <v>1</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E88" s="0" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F88" s="0" t="b">
         <v>0</v>
       </c>
       <c r="G88" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H88" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I88" s="0" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="J88" s="0" t="s">
         <v>258</v>
       </c>
       <c r="K88" s="0">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="89">
@@ -3951,19 +3951,19 @@
         <v>3</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="E89" s="0" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="F89" s="0" t="b">
         <v>0</v>
       </c>
       <c r="G89" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H89" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I89" s="0" t="s">
         <v>237</v>
@@ -3977,37 +3977,37 @@
     </row>
     <row r="90">
       <c r="A90" s="0">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C90" s="0">
         <v>1</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E90" s="0" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F90" s="0" t="b">
         <v>0</v>
       </c>
       <c r="G90" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H90" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I90" s="0" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="J90" s="0" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K90" s="0">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="91">
@@ -4021,19 +4021,19 @@
         <v>3</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="E91" s="0" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="F91" s="0" t="b">
         <v>0</v>
       </c>
       <c r="G91" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H91" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I91" s="0" t="s">
         <v>237</v>
@@ -4047,37 +4047,37 @@
     </row>
     <row r="92">
       <c r="A92" s="0">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C92" s="0">
         <v>1</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E92" s="0" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F92" s="0" t="b">
         <v>0</v>
       </c>
       <c r="G92" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H92" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I92" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="J92" s="0" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K92" s="0">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="93">
@@ -4088,22 +4088,22 @@
         <v>5</v>
       </c>
       <c r="C93" s="0">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="E93" s="0" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="F93" s="0" t="b">
         <v>0</v>
       </c>
       <c r="G93" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H93" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I93" s="0" t="s">
         <v>237</v>
@@ -4117,19 +4117,19 @@
     </row>
     <row r="94">
       <c r="A94" s="0">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="C94" s="0">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>127</v>
+        <v>79</v>
       </c>
       <c r="E94" s="0" t="s">
-        <v>203</v>
+        <v>155</v>
       </c>
       <c r="F94" s="0" t="b">
         <v>0</v>
@@ -4141,30 +4141,30 @@
         <v>233</v>
       </c>
       <c r="I94" s="0" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="J94" s="0" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="K94" s="0">
-        <v>5</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="0">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="C95" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="E95" s="0" t="s">
-        <v>155</v>
+        <v>200</v>
       </c>
       <c r="F95" s="0" t="b">
         <v>0</v>
@@ -4176,30 +4176,30 @@
         <v>233</v>
       </c>
       <c r="I95" s="0" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="J95" s="0" t="s">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="K95" s="0">
-        <v>-3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="0">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="C96" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>128</v>
+        <v>79</v>
       </c>
       <c r="E96" s="0" t="s">
-        <v>204</v>
+        <v>155</v>
       </c>
       <c r="F96" s="0" t="b">
         <v>0</v>
@@ -4211,30 +4211,30 @@
         <v>233</v>
       </c>
       <c r="I96" s="0" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="J96" s="0" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="K96" s="0">
-        <v>6</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="0">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="C97" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>79</v>
+        <v>125</v>
       </c>
       <c r="E97" s="0" t="s">
-        <v>155</v>
+        <v>201</v>
       </c>
       <c r="F97" s="0" t="b">
         <v>0</v>
@@ -4246,30 +4246,30 @@
         <v>233</v>
       </c>
       <c r="I97" s="0" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="J97" s="0" t="s">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="K97" s="0">
-        <v>-3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="0">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="C98" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="E98" s="0" t="s">
-        <v>205</v>
+        <v>155</v>
       </c>
       <c r="F98" s="0" t="b">
         <v>0</v>
@@ -4281,293 +4281,293 @@
         <v>233</v>
       </c>
       <c r="I98" s="0" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="J98" s="0" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="K98" s="0">
-        <v>6</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="0">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="C99" s="0">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="E99" s="0" t="s">
-        <v>156</v>
+        <v>202</v>
       </c>
       <c r="F99" s="0" t="b">
         <v>0</v>
       </c>
       <c r="G99" s="0">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H99" s="0" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I99" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J99" s="0" t="s">
-        <v>237</v>
+        <v>259</v>
       </c>
       <c r="K99" s="0">
-        <v>-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="0">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="C100" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="E100" s="0" t="s">
-        <v>206</v>
+        <v>155</v>
       </c>
       <c r="F100" s="0" t="b">
         <v>0</v>
       </c>
       <c r="G100" s="0">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H100" s="0" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I100" s="0" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="J100" s="0" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="K100" s="0">
-        <v>2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="0">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="C101" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>80</v>
+        <v>127</v>
       </c>
       <c r="E101" s="0" t="s">
-        <v>156</v>
+        <v>203</v>
       </c>
       <c r="F101" s="0" t="b">
         <v>0</v>
       </c>
       <c r="G101" s="0">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H101" s="0" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I101" s="0" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="J101" s="0" t="s">
-        <v>237</v>
+        <v>259</v>
       </c>
       <c r="K101" s="0">
-        <v>-3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="0">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="C102" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="E102" s="0" t="s">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c r="F102" s="0" t="b">
         <v>0</v>
       </c>
       <c r="G102" s="0">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H102" s="0" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I102" s="0" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="J102" s="0" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="K102" s="0">
-        <v>1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="0">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="C103" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>80</v>
+        <v>128</v>
       </c>
       <c r="E103" s="0" t="s">
-        <v>156</v>
+        <v>204</v>
       </c>
       <c r="F103" s="0" t="b">
         <v>0</v>
       </c>
       <c r="G103" s="0">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H103" s="0" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I103" s="0" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="J103" s="0" t="s">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="K103" s="0">
-        <v>-3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="0">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="C104" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>132</v>
+        <v>79</v>
       </c>
       <c r="E104" s="0" t="s">
-        <v>208</v>
+        <v>155</v>
       </c>
       <c r="F104" s="0" t="b">
         <v>0</v>
       </c>
       <c r="G104" s="0">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H104" s="0" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I104" s="0" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="J104" s="0" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="K104" s="0">
-        <v>1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="0">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="C105" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>80</v>
+        <v>129</v>
       </c>
       <c r="E105" s="0" t="s">
-        <v>156</v>
+        <v>205</v>
       </c>
       <c r="F105" s="0" t="b">
         <v>0</v>
       </c>
       <c r="G105" s="0">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H105" s="0" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I105" s="0" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="J105" s="0" t="s">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="K105" s="0">
-        <v>-3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="0">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="C106" s="0">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>133</v>
+        <v>79</v>
       </c>
       <c r="E106" s="0" t="s">
-        <v>209</v>
+        <v>155</v>
       </c>
       <c r="F106" s="0" t="b">
         <v>0</v>
       </c>
       <c r="G106" s="0">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H106" s="0" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I106" s="0" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="J106" s="0" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="K106" s="0">
-        <v>2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="107">
@@ -4575,10 +4575,10 @@
         <v>0</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C107" s="0">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="D107" s="0" t="s">
         <v>80</v>
@@ -4602,24 +4602,24 @@
         <v>237</v>
       </c>
       <c r="K107" s="0">
-        <v>-3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="0">
+        <v>49</v>
+      </c>
+      <c r="B108" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B108" s="0" t="s">
-        <v>57</v>
-      </c>
       <c r="C108" s="0">
         <v>1</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E108" s="0" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F108" s="0" t="b">
         <v>0</v>
@@ -4631,13 +4631,13 @@
         <v>234</v>
       </c>
       <c r="I108" s="0" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="J108" s="0" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K108" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109">
@@ -4677,19 +4677,19 @@
     </row>
     <row r="110">
       <c r="A110" s="0">
+        <v>50</v>
+      </c>
+      <c r="B110" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="B110" s="0" t="s">
-        <v>58</v>
-      </c>
       <c r="C110" s="0">
         <v>1</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E110" s="0" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F110" s="0" t="b">
         <v>0</v>
@@ -4701,13 +4701,13 @@
         <v>234</v>
       </c>
       <c r="I110" s="0" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="J110" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K110" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
@@ -4715,25 +4715,25 @@
         <v>0</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C111" s="0">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="E111" s="0" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="F111" s="0" t="b">
         <v>0</v>
       </c>
       <c r="G111" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H111" s="0" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I111" s="0" t="s">
         <v>237</v>
@@ -4742,42 +4742,42 @@
         <v>237</v>
       </c>
       <c r="K111" s="0">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="0">
+        <v>51</v>
+      </c>
+      <c r="B112" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="B112" s="0" t="s">
-        <v>59</v>
-      </c>
       <c r="C112" s="0">
         <v>1</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E112" s="0" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F112" s="0" t="b">
         <v>0</v>
       </c>
       <c r="G112" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H112" s="0" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I112" s="0" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="J112" s="0" t="s">
         <v>258</v>
       </c>
       <c r="K112" s="0">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
@@ -4791,19 +4791,19 @@
         <v>3</v>
       </c>
       <c r="D113" s="0" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="E113" s="0" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="F113" s="0" t="b">
         <v>0</v>
       </c>
       <c r="G113" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H113" s="0" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I113" s="0" t="s">
         <v>237</v>
@@ -4817,37 +4817,37 @@
     </row>
     <row r="114">
       <c r="A114" s="0">
+        <v>52</v>
+      </c>
+      <c r="B114" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="B114" s="0" t="s">
-        <v>60</v>
-      </c>
       <c r="C114" s="0">
         <v>1</v>
       </c>
       <c r="D114" s="0" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E114" s="0" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F114" s="0" t="b">
         <v>0</v>
       </c>
       <c r="G114" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H114" s="0" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I114" s="0" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="J114" s="0" t="s">
         <v>259</v>
       </c>
       <c r="K114" s="0">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115">
@@ -4861,19 +4861,19 @@
         <v>3</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="E115" s="0" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="F115" s="0" t="b">
         <v>0</v>
       </c>
       <c r="G115" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H115" s="0" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I115" s="0" t="s">
         <v>237</v>
@@ -4887,37 +4887,37 @@
     </row>
     <row r="116">
       <c r="A116" s="0">
+        <v>53</v>
+      </c>
+      <c r="B116" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="B116" s="0" t="s">
-        <v>61</v>
-      </c>
       <c r="C116" s="0">
         <v>1</v>
       </c>
       <c r="D116" s="0" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E116" s="0" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F116" s="0" t="b">
         <v>0</v>
       </c>
       <c r="G116" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H116" s="0" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I116" s="0" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J116" s="0" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K116" s="0">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="117">
@@ -4931,19 +4931,19 @@
         <v>3</v>
       </c>
       <c r="D117" s="0" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="E117" s="0" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="F117" s="0" t="b">
         <v>0</v>
       </c>
       <c r="G117" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H117" s="0" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I117" s="0" t="s">
         <v>237</v>
@@ -4957,37 +4957,37 @@
     </row>
     <row r="118">
       <c r="A118" s="0">
+        <v>54</v>
+      </c>
+      <c r="B118" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="B118" s="0" t="s">
-        <v>62</v>
-      </c>
       <c r="C118" s="0">
         <v>1</v>
       </c>
       <c r="D118" s="0" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E118" s="0" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F118" s="0" t="b">
         <v>0</v>
       </c>
       <c r="G118" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H118" s="0" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I118" s="0" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="J118" s="0" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K118" s="0">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="119">
@@ -4998,22 +4998,22 @@
         <v>5</v>
       </c>
       <c r="C119" s="0">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="E119" s="0" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="F119" s="0" t="b">
         <v>0</v>
       </c>
       <c r="G119" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H119" s="0" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I119" s="0" t="s">
         <v>237</v>
@@ -5027,19 +5027,19 @@
     </row>
     <row r="120">
       <c r="A120" s="0">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="C120" s="0">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D120" s="0" t="s">
-        <v>140</v>
+        <v>93</v>
       </c>
       <c r="E120" s="0" t="s">
-        <v>216</v>
+        <v>169</v>
       </c>
       <c r="F120" s="0" t="b">
         <v>0</v>
@@ -5051,30 +5051,30 @@
         <v>235</v>
       </c>
       <c r="I120" s="0" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J120" s="0" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="K120" s="0">
-        <v>9</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="0">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="C121" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>93</v>
+        <v>136</v>
       </c>
       <c r="E121" s="0" t="s">
-        <v>169</v>
+        <v>212</v>
       </c>
       <c r="F121" s="0" t="b">
         <v>0</v>
@@ -5086,30 +5086,30 @@
         <v>235</v>
       </c>
       <c r="I121" s="0" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="J121" s="0" t="s">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="K121" s="0">
-        <v>-3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="0">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>64</v>
+        <v>5</v>
       </c>
       <c r="C122" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D122" s="0" t="s">
-        <v>141</v>
+        <v>93</v>
       </c>
       <c r="E122" s="0" t="s">
-        <v>217</v>
+        <v>169</v>
       </c>
       <c r="F122" s="0" t="b">
         <v>0</v>
@@ -5121,363 +5121,363 @@
         <v>235</v>
       </c>
       <c r="I122" s="0" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="J122" s="0" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="K122" s="0">
-        <v>9</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="0">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C123" s="0">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D123" s="0" t="s">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="E123" s="0" t="s">
-        <v>156</v>
+        <v>213</v>
       </c>
       <c r="F123" s="0" t="b">
         <v>0</v>
       </c>
       <c r="G123" s="0">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H123" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I123" s="0" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="J123" s="0" t="s">
-        <v>237</v>
+        <v>259</v>
       </c>
       <c r="K123" s="0">
-        <v>-2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="0">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="C124" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D124" s="0" t="s">
-        <v>142</v>
+        <v>93</v>
       </c>
       <c r="E124" s="0" t="s">
-        <v>218</v>
+        <v>169</v>
       </c>
       <c r="F124" s="0" t="b">
         <v>0</v>
       </c>
       <c r="G124" s="0">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H124" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I124" s="0" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="J124" s="0" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="K124" s="0">
-        <v>2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="0">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="C125" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D125" s="0" t="s">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="E125" s="0" t="s">
-        <v>156</v>
+        <v>214</v>
       </c>
       <c r="F125" s="0" t="b">
         <v>0</v>
       </c>
       <c r="G125" s="0">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H125" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I125" s="0" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="J125" s="0" t="s">
-        <v>237</v>
+        <v>259</v>
       </c>
       <c r="K125" s="0">
-        <v>-3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="0">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>66</v>
+        <v>5</v>
       </c>
       <c r="C126" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D126" s="0" t="s">
-        <v>143</v>
+        <v>93</v>
       </c>
       <c r="E126" s="0" t="s">
-        <v>219</v>
+        <v>169</v>
       </c>
       <c r="F126" s="0" t="b">
         <v>0</v>
       </c>
       <c r="G126" s="0">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H126" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I126" s="0" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="J126" s="0" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="K126" s="0">
-        <v>2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="0">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="C127" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D127" s="0" t="s">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="E127" s="0" t="s">
-        <v>156</v>
+        <v>215</v>
       </c>
       <c r="F127" s="0" t="b">
         <v>0</v>
       </c>
       <c r="G127" s="0">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H127" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I127" s="0" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="J127" s="0" t="s">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="K127" s="0">
-        <v>-3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="0">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>67</v>
+        <v>5</v>
       </c>
       <c r="C128" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D128" s="0" t="s">
-        <v>144</v>
+        <v>93</v>
       </c>
       <c r="E128" s="0" t="s">
-        <v>220</v>
+        <v>169</v>
       </c>
       <c r="F128" s="0" t="b">
         <v>0</v>
       </c>
       <c r="G128" s="0">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H128" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I128" s="0" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="J128" s="0" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="K128" s="0">
-        <v>3</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="0">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="C129" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D129" s="0" t="s">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="E129" s="0" t="s">
-        <v>156</v>
+        <v>216</v>
       </c>
       <c r="F129" s="0" t="b">
         <v>0</v>
       </c>
       <c r="G129" s="0">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H129" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I129" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J129" s="0" t="s">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="K129" s="0">
-        <v>-3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="0">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="C130" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D130" s="0" t="s">
-        <v>145</v>
+        <v>93</v>
       </c>
       <c r="E130" s="0" t="s">
-        <v>221</v>
+        <v>169</v>
       </c>
       <c r="F130" s="0" t="b">
         <v>0</v>
       </c>
       <c r="G130" s="0">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H130" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I130" s="0" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="J130" s="0" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="K130" s="0">
-        <v>3</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="0">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C131" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D131" s="0" t="s">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="E131" s="0" t="s">
-        <v>156</v>
+        <v>217</v>
       </c>
       <c r="F131" s="0" t="b">
         <v>0</v>
       </c>
       <c r="G131" s="0">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H131" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I131" s="0" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="J131" s="0" t="s">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="K131" s="0">
-        <v>-3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="0">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>69</v>
+        <v>5</v>
       </c>
       <c r="C132" s="0">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D132" s="0" t="s">
-        <v>146</v>
+        <v>93</v>
       </c>
       <c r="E132" s="0" t="s">
-        <v>222</v>
+        <v>169</v>
       </c>
       <c r="F132" s="0" t="b">
         <v>0</v>
       </c>
       <c r="G132" s="0">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H132" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I132" s="0" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="J132" s="0" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="K132" s="0">
-        <v>1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="133">
@@ -5485,10 +5485,10 @@
         <v>0</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C133" s="0">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="D133" s="0" t="s">
         <v>80</v>
@@ -5512,24 +5512,24 @@
         <v>237</v>
       </c>
       <c r="K133" s="0">
-        <v>-3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="0">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C134" s="0">
         <v>1</v>
       </c>
       <c r="D134" s="0" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E134" s="0" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F134" s="0" t="b">
         <v>0</v>
@@ -5541,13 +5541,13 @@
         <v>234</v>
       </c>
       <c r="I134" s="0" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="J134" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K134" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135">
@@ -5555,25 +5555,25 @@
         <v>0</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C135" s="0">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="D135" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E135" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F135" s="0" t="b">
         <v>0</v>
       </c>
       <c r="G135" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H135" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I135" s="0" t="s">
         <v>237</v>
@@ -5582,42 +5582,42 @@
         <v>237</v>
       </c>
       <c r="K135" s="0">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="0">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C136" s="0">
         <v>1</v>
       </c>
       <c r="D136" s="0" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E136" s="0" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="F136" s="0" t="b">
         <v>0</v>
       </c>
       <c r="G136" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H136" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I136" s="0" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="J136" s="0" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K136" s="0">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137">
@@ -5631,19 +5631,19 @@
         <v>3</v>
       </c>
       <c r="D137" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E137" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F137" s="0" t="b">
         <v>0</v>
       </c>
       <c r="G137" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H137" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I137" s="0" t="s">
         <v>237</v>
@@ -5657,37 +5657,37 @@
     </row>
     <row r="138">
       <c r="A138" s="0">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C138" s="0">
         <v>1</v>
       </c>
       <c r="D138" s="0" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E138" s="0" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F138" s="0" t="b">
         <v>0</v>
       </c>
       <c r="G138" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H138" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I138" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="J138" s="0" t="s">
         <v>257</v>
       </c>
       <c r="K138" s="0">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="139">
@@ -5701,19 +5701,19 @@
         <v>3</v>
       </c>
       <c r="D139" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E139" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F139" s="0" t="b">
         <v>0</v>
       </c>
       <c r="G139" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H139" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I139" s="0" t="s">
         <v>237</v>
@@ -5727,37 +5727,37 @@
     </row>
     <row r="140">
       <c r="A140" s="0">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C140" s="0">
         <v>1</v>
       </c>
       <c r="D140" s="0" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E140" s="0" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F140" s="0" t="b">
         <v>0</v>
       </c>
       <c r="G140" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H140" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I140" s="0" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="J140" s="0" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K140" s="0">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="141">
@@ -5771,19 +5771,19 @@
         <v>3</v>
       </c>
       <c r="D141" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E141" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F141" s="0" t="b">
         <v>0</v>
       </c>
       <c r="G141" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H141" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I141" s="0" t="s">
         <v>237</v>
@@ -5797,37 +5797,37 @@
     </row>
     <row r="142">
       <c r="A142" s="0">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C142" s="0">
         <v>1</v>
       </c>
       <c r="D142" s="0" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E142" s="0" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F142" s="0" t="b">
         <v>0</v>
       </c>
       <c r="G142" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H142" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I142" s="0" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="J142" s="0" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K142" s="0">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
@@ -5841,19 +5841,19 @@
         <v>3</v>
       </c>
       <c r="D143" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E143" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F143" s="0" t="b">
         <v>0</v>
       </c>
       <c r="G143" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H143" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I143" s="0" t="s">
         <v>237</v>
@@ -5867,37 +5867,37 @@
     </row>
     <row r="144">
       <c r="A144" s="0">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C144" s="0">
         <v>1</v>
       </c>
       <c r="D144" s="0" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E144" s="0" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="F144" s="0" t="b">
         <v>0</v>
       </c>
       <c r="G144" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H144" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I144" s="0" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="J144" s="0" t="s">
         <v>258</v>
       </c>
       <c r="K144" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
@@ -5908,22 +5908,22 @@
         <v>5</v>
       </c>
       <c r="C145" s="0">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D145" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E145" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F145" s="0" t="b">
         <v>0</v>
       </c>
       <c r="G145" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H145" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I145" s="0" t="s">
         <v>237</v>
@@ -5937,19 +5937,19 @@
     </row>
     <row r="146">
       <c r="A146" s="0">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>76</v>
+        <v>3</v>
       </c>
       <c r="C146" s="0">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D146" s="0" t="s">
-        <v>153</v>
+        <v>79</v>
       </c>
       <c r="E146" s="0" t="s">
-        <v>229</v>
+        <v>155</v>
       </c>
       <c r="F146" s="0" t="b">
         <v>0</v>
@@ -5961,47 +5961,467 @@
         <v>233</v>
       </c>
       <c r="I146" s="0" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="J146" s="0" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="K146" s="0">
-        <v>4</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="0">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="C147" s="0">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D147" s="0" t="s">
-        <v>79</v>
+        <v>148</v>
       </c>
       <c r="E147" s="0" t="s">
-        <v>155</v>
+        <v>224</v>
       </c>
       <c r="F147" s="0" t="b">
         <v>0</v>
       </c>
       <c r="G147" s="0">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H147" s="0" t="s">
         <v>233</v>
       </c>
       <c r="I147" s="0" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="J147" s="0" t="s">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="K147" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="0">
+        <v>0</v>
+      </c>
+      <c r="B148" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C148" s="0">
+        <v>3</v>
+      </c>
+      <c r="D148" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="E148" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="F148" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="G148" s="0">
+        <v>12</v>
+      </c>
+      <c r="H148" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="I148" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="J148" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="K148" s="0">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="0">
+        <v>68</v>
+      </c>
+      <c r="B149" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="C149" s="0">
+        <v>1</v>
+      </c>
+      <c r="D149" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="E149" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="F149" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="G149" s="0">
+        <v>12</v>
+      </c>
+      <c r="H149" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="I149" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="J149" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="K149" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="0">
+        <v>0</v>
+      </c>
+      <c r="B150" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C150" s="0">
+        <v>3</v>
+      </c>
+      <c r="D150" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="E150" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="F150" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="G150" s="0">
+        <v>12</v>
+      </c>
+      <c r="H150" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="I150" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="J150" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="K150" s="0">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="0">
+        <v>69</v>
+      </c>
+      <c r="B151" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="C151" s="0">
+        <v>1</v>
+      </c>
+      <c r="D151" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="E151" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="F151" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="G151" s="0">
+        <v>12</v>
+      </c>
+      <c r="H151" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="I151" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="J151" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="K151" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="0">
+        <v>0</v>
+      </c>
+      <c r="B152" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C152" s="0">
+        <v>3</v>
+      </c>
+      <c r="D152" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="E152" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="F152" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="G152" s="0">
+        <v>12</v>
+      </c>
+      <c r="H152" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="I152" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="J152" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="K152" s="0">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="0">
+        <v>70</v>
+      </c>
+      <c r="B153" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="C153" s="0">
+        <v>1</v>
+      </c>
+      <c r="D153" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="E153" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="F153" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="G153" s="0">
+        <v>12</v>
+      </c>
+      <c r="H153" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="I153" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="J153" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="K153" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="0">
+        <v>0</v>
+      </c>
+      <c r="B154" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C154" s="0">
+        <v>3</v>
+      </c>
+      <c r="D154" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="E154" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="F154" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="G154" s="0">
+        <v>12</v>
+      </c>
+      <c r="H154" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="I154" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="J154" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="K154" s="0">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="0">
+        <v>71</v>
+      </c>
+      <c r="B155" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="C155" s="0">
+        <v>1</v>
+      </c>
+      <c r="D155" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="E155" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="F155" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="G155" s="0">
+        <v>12</v>
+      </c>
+      <c r="H155" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="I155" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="J155" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="K155" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="0">
+        <v>0</v>
+      </c>
+      <c r="B156" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C156" s="0">
+        <v>3</v>
+      </c>
+      <c r="D156" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="E156" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="F156" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="G156" s="0">
+        <v>12</v>
+      </c>
+      <c r="H156" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="I156" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="J156" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="K156" s="0">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="0">
+        <v>72</v>
+      </c>
+      <c r="B157" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C157" s="0">
+        <v>1</v>
+      </c>
+      <c r="D157" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="E157" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="F157" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="G157" s="0">
+        <v>12</v>
+      </c>
+      <c r="H157" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="I157" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="J157" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="K157" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="0">
+        <v>0</v>
+      </c>
+      <c r="B158" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C158" s="0">
+        <v>6</v>
+      </c>
+      <c r="D158" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="E158" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="F158" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="G158" s="0">
+        <v>12</v>
+      </c>
+      <c r="H158" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="I158" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="J158" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="K158" s="0">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="0">
+        <v>0</v>
+      </c>
+      <c r="B159" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C159" s="0">
+        <v>20</v>
+      </c>
+      <c r="D159" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="E159" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="F159" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="G159" s="0">
+        <v>0</v>
+      </c>
+      <c r="H159" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="I159" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="J159" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="K159" s="0">
         <v>-4</v>
       </c>
     </row>

--- a/Experiment/Orders/PAR06_RUN03.xlsx
+++ b/Experiment/Orders/PAR06_RUN03.xlsx
@@ -848,16 +848,16 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="true"/>
-    <col min="2" max="2" width="15.42578125" customWidth="true"/>
-    <col min="3" max="3" width="17.140625" customWidth="true"/>
-    <col min="4" max="4" width="20.85546875" customWidth="true"/>
-    <col min="5" max="5" width="21" customWidth="true"/>
-    <col min="6" max="6" width="9.85546875" customWidth="true"/>
-    <col min="7" max="7" width="5.85546875" customWidth="true"/>
-    <col min="8" max="8" width="8.7109375" customWidth="true"/>
-    <col min="9" max="9" width="7.140625" customWidth="true"/>
-    <col min="10" max="10" width="5.5703125" customWidth="true"/>
-    <col min="11" max="11" width="11.7109375" customWidth="true"/>
+    <col min="2" max="2" width="15.3046875" customWidth="true"/>
+    <col min="3" max="3" width="16.4609375" customWidth="true"/>
+    <col min="4" max="4" width="20.3828125" customWidth="true"/>
+    <col min="5" max="5" width="20.61328125" customWidth="true"/>
+    <col min="6" max="6" width="9.53515625" customWidth="true"/>
+    <col min="7" max="7" width="5.84375" customWidth="true"/>
+    <col min="8" max="8" width="8.4609375" customWidth="true"/>
+    <col min="9" max="9" width="7.15234375" customWidth="true"/>
+    <col min="10" max="10" width="5.765625" customWidth="true"/>
+    <col min="11" max="11" width="11.3046875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1358,7 +1358,7 @@
         <v>5</v>
       </c>
       <c r="C15" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D15" s="0" t="s">
         <v>80</v>
@@ -1813,7 +1813,7 @@
         <v>5</v>
       </c>
       <c r="C28" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D28" s="0" t="s">
         <v>79</v>
@@ -2268,7 +2268,7 @@
         <v>5</v>
       </c>
       <c r="C41" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D41" s="0" t="s">
         <v>93</v>
@@ -2723,7 +2723,7 @@
         <v>5</v>
       </c>
       <c r="C54" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D54" s="0" t="s">
         <v>80</v>
@@ -3178,7 +3178,7 @@
         <v>5</v>
       </c>
       <c r="C67" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D67" s="0" t="s">
         <v>93</v>
@@ -3633,7 +3633,7 @@
         <v>5</v>
       </c>
       <c r="C80" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D80" s="0" t="s">
         <v>79</v>
@@ -4088,7 +4088,7 @@
         <v>5</v>
       </c>
       <c r="C93" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D93" s="0" t="s">
         <v>93</v>
@@ -4543,7 +4543,7 @@
         <v>5</v>
       </c>
       <c r="C106" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D106" s="0" t="s">
         <v>79</v>
@@ -4998,7 +4998,7 @@
         <v>5</v>
       </c>
       <c r="C119" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D119" s="0" t="s">
         <v>80</v>
@@ -5453,7 +5453,7 @@
         <v>5</v>
       </c>
       <c r="C132" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D132" s="0" t="s">
         <v>93</v>
@@ -5908,7 +5908,7 @@
         <v>5</v>
       </c>
       <c r="C145" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D145" s="0" t="s">
         <v>80</v>
@@ -6363,7 +6363,7 @@
         <v>5</v>
       </c>
       <c r="C158" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D158" s="0" t="s">
         <v>79</v>

--- a/Experiment/Orders/PAR06_RUN03.xlsx
+++ b/Experiment/Orders/PAR06_RUN03.xlsx
@@ -27,223 +27,223 @@
     <t>NULL_Change</t>
   </si>
   <si>
-    <t>Face13_D51_S30</t>
+    <t>Face13_D55_S31</t>
   </si>
   <si>
     <t>NULL_ITI</t>
   </si>
   <si>
-    <t>Face08_D51_S20</t>
-  </si>
-  <si>
-    <t>Face03_D51_S25</t>
-  </si>
-  <si>
-    <t>Face06_D51_S20</t>
-  </si>
-  <si>
-    <t>Face01_D51_S30</t>
-  </si>
-  <si>
-    <t>Face02_D51_S25</t>
-  </si>
-  <si>
-    <t>Face09_D64_S30</t>
-  </si>
-  <si>
-    <t>Face04_D64_S20</t>
-  </si>
-  <si>
-    <t>Face16_D64_S30</t>
-  </si>
-  <si>
-    <t>Face10_D64_S25</t>
-  </si>
-  <si>
-    <t>Face05_D64_S20</t>
-  </si>
-  <si>
-    <t>Face07_D64_S25</t>
-  </si>
-  <si>
-    <t>Face17_D80_S30</t>
-  </si>
-  <si>
-    <t>Face15_D80_S20</t>
-  </si>
-  <si>
-    <t>Face12_D80_S20</t>
-  </si>
-  <si>
-    <t>Face14_D80_S30</t>
-  </si>
-  <si>
-    <t>Face18_D80_S25</t>
-  </si>
-  <si>
-    <t>Face11_D80_S25</t>
-  </si>
-  <si>
-    <t>Face11_D51_S30</t>
-  </si>
-  <si>
-    <t>Face10_D51_S20</t>
-  </si>
-  <si>
-    <t>Face03_D51_S30</t>
-  </si>
-  <si>
-    <t>Face05_D51_S25</t>
-  </si>
-  <si>
-    <t>Face08_D51_S25</t>
-  </si>
-  <si>
-    <t>Face01_D51_S20</t>
-  </si>
-  <si>
-    <t>Face13_D80_S20</t>
-  </si>
-  <si>
-    <t>Face14_D80_S20</t>
-  </si>
-  <si>
-    <t>Face09_D80_S25</t>
-  </si>
-  <si>
-    <t>Face12_D80_S30</t>
-  </si>
-  <si>
-    <t>Face15_D80_S30</t>
-  </si>
-  <si>
-    <t>Face02_D80_S25</t>
-  </si>
-  <si>
-    <t>Face16_D64_S25</t>
-  </si>
-  <si>
-    <t>Face07_D64_S20</t>
-  </si>
-  <si>
-    <t>Face17_D64_S25</t>
-  </si>
-  <si>
-    <t>Face06_D64_S30</t>
-  </si>
-  <si>
-    <t>Face18_D64_S20</t>
-  </si>
-  <si>
-    <t>Face04_D64_S30</t>
-  </si>
-  <si>
-    <t>Face07_D80_S25</t>
-  </si>
-  <si>
-    <t>Face02_D80_S30</t>
-  </si>
-  <si>
-    <t>Face17_D80_S25</t>
-  </si>
-  <si>
-    <t>Face11_D80_S20</t>
-  </si>
-  <si>
-    <t>Face04_D80_S30</t>
-  </si>
-  <si>
-    <t>Face03_D80_S20</t>
-  </si>
-  <si>
-    <t>Face10_D64_S20</t>
-  </si>
-  <si>
-    <t>Face12_D64_S20</t>
-  </si>
-  <si>
-    <t>Face13_D64_S25</t>
-  </si>
-  <si>
-    <t>Face01_D64_S25</t>
-  </si>
-  <si>
-    <t>Face05_D64_S30</t>
-  </si>
-  <si>
-    <t>Face15_D64_S30</t>
-  </si>
-  <si>
-    <t>Face09_D51_S25</t>
-  </si>
-  <si>
-    <t>Face16_D51_S20</t>
-  </si>
-  <si>
-    <t>Face18_D51_S20</t>
-  </si>
-  <si>
-    <t>Face14_D51_S25</t>
-  </si>
-  <si>
-    <t>Face06_D51_S30</t>
-  </si>
-  <si>
-    <t>Face08_D51_S30</t>
-  </si>
-  <si>
-    <t>Face02_D80_S20</t>
-  </si>
-  <si>
-    <t>Face05_D80_S25</t>
-  </si>
-  <si>
-    <t>Face01_D80_S25</t>
-  </si>
-  <si>
-    <t>Face04_D80_S20</t>
-  </si>
-  <si>
-    <t>Face13_D80_S30</t>
-  </si>
-  <si>
-    <t>Face06_D80_S30</t>
-  </si>
-  <si>
-    <t>Face10_D51_S25</t>
-  </si>
-  <si>
-    <t>Face11_D51_S25</t>
-  </si>
-  <si>
-    <t>Face18_D51_S30</t>
-  </si>
-  <si>
-    <t>Face17_D51_S30</t>
-  </si>
-  <si>
-    <t>Face12_D51_S20</t>
-  </si>
-  <si>
-    <t>Face07_D51_S20</t>
-  </si>
-  <si>
-    <t>Face03_D64_S30</t>
-  </si>
-  <si>
-    <t>Face14_D64_S30</t>
-  </si>
-  <si>
-    <t>Face08_D64_S25</t>
-  </si>
-  <si>
-    <t>Face09_D64_S25</t>
-  </si>
-  <si>
-    <t>Face15_D64_S20</t>
-  </si>
-  <si>
-    <t>Face16_D64_S20</t>
+    <t>Face08_D55_S20</t>
+  </si>
+  <si>
+    <t>Face03_D55_S25</t>
+  </si>
+  <si>
+    <t>Face06_D55_S20</t>
+  </si>
+  <si>
+    <t>Face01_D55_S31</t>
+  </si>
+  <si>
+    <t>Face02_D55_S25</t>
+  </si>
+  <si>
+    <t>Face09_D69_S31</t>
+  </si>
+  <si>
+    <t>Face04_D69_S20</t>
+  </si>
+  <si>
+    <t>Face16_D69_S31</t>
+  </si>
+  <si>
+    <t>Face10_D69_S25</t>
+  </si>
+  <si>
+    <t>Face05_D69_S20</t>
+  </si>
+  <si>
+    <t>Face07_D69_S25</t>
+  </si>
+  <si>
+    <t>Face17_D86_S31</t>
+  </si>
+  <si>
+    <t>Face15_D86_S20</t>
+  </si>
+  <si>
+    <t>Face12_D86_S20</t>
+  </si>
+  <si>
+    <t>Face14_D86_S31</t>
+  </si>
+  <si>
+    <t>Face18_D86_S25</t>
+  </si>
+  <si>
+    <t>Face11_D86_S25</t>
+  </si>
+  <si>
+    <t>Face11_D55_S31</t>
+  </si>
+  <si>
+    <t>Face10_D55_S20</t>
+  </si>
+  <si>
+    <t>Face03_D55_S31</t>
+  </si>
+  <si>
+    <t>Face05_D55_S25</t>
+  </si>
+  <si>
+    <t>Face08_D55_S25</t>
+  </si>
+  <si>
+    <t>Face01_D55_S20</t>
+  </si>
+  <si>
+    <t>Face13_D86_S20</t>
+  </si>
+  <si>
+    <t>Face14_D86_S20</t>
+  </si>
+  <si>
+    <t>Face09_D86_S25</t>
+  </si>
+  <si>
+    <t>Face12_D86_S31</t>
+  </si>
+  <si>
+    <t>Face15_D86_S31</t>
+  </si>
+  <si>
+    <t>Face02_D86_S25</t>
+  </si>
+  <si>
+    <t>Face16_D69_S25</t>
+  </si>
+  <si>
+    <t>Face07_D69_S20</t>
+  </si>
+  <si>
+    <t>Face17_D69_S25</t>
+  </si>
+  <si>
+    <t>Face06_D69_S31</t>
+  </si>
+  <si>
+    <t>Face18_D69_S20</t>
+  </si>
+  <si>
+    <t>Face04_D69_S31</t>
+  </si>
+  <si>
+    <t>Face07_D86_S25</t>
+  </si>
+  <si>
+    <t>Face02_D86_S31</t>
+  </si>
+  <si>
+    <t>Face17_D86_S25</t>
+  </si>
+  <si>
+    <t>Face11_D86_S20</t>
+  </si>
+  <si>
+    <t>Face04_D86_S31</t>
+  </si>
+  <si>
+    <t>Face03_D86_S20</t>
+  </si>
+  <si>
+    <t>Face10_D69_S20</t>
+  </si>
+  <si>
+    <t>Face12_D69_S20</t>
+  </si>
+  <si>
+    <t>Face13_D69_S25</t>
+  </si>
+  <si>
+    <t>Face01_D69_S25</t>
+  </si>
+  <si>
+    <t>Face05_D69_S31</t>
+  </si>
+  <si>
+    <t>Face15_D69_S31</t>
+  </si>
+  <si>
+    <t>Face09_D55_S25</t>
+  </si>
+  <si>
+    <t>Face16_D55_S20</t>
+  </si>
+  <si>
+    <t>Face18_D55_S20</t>
+  </si>
+  <si>
+    <t>Face14_D55_S25</t>
+  </si>
+  <si>
+    <t>Face06_D55_S31</t>
+  </si>
+  <si>
+    <t>Face08_D55_S31</t>
+  </si>
+  <si>
+    <t>Face02_D86_S20</t>
+  </si>
+  <si>
+    <t>Face05_D86_S25</t>
+  </si>
+  <si>
+    <t>Face01_D86_S25</t>
+  </si>
+  <si>
+    <t>Face04_D86_S20</t>
+  </si>
+  <si>
+    <t>Face13_D86_S31</t>
+  </si>
+  <si>
+    <t>Face06_D86_S31</t>
+  </si>
+  <si>
+    <t>Face10_D55_S25</t>
+  </si>
+  <si>
+    <t>Face11_D55_S25</t>
+  </si>
+  <si>
+    <t>Face18_D55_S31</t>
+  </si>
+  <si>
+    <t>Face17_D55_S31</t>
+  </si>
+  <si>
+    <t>Face12_D55_S20</t>
+  </si>
+  <si>
+    <t>Face07_D55_S20</t>
+  </si>
+  <si>
+    <t>Face03_D69_S31</t>
+  </si>
+  <si>
+    <t>Face14_D69_S31</t>
+  </si>
+  <si>
+    <t>Face08_D69_S25</t>
+  </si>
+  <si>
+    <t>Face09_D69_S25</t>
+  </si>
+  <si>
+    <t>Face15_D69_S20</t>
+  </si>
+  <si>
+    <t>Face16_D69_S20</t>
   </si>
   <si>
     <t>Duration_Seconds</t>
@@ -252,457 +252,457 @@
     <t>Filename_Left</t>
   </si>
   <si>
-    <t>Fixation_D64_l.png</t>
-  </si>
-  <si>
-    <t>Fixation_D51_l.png</t>
-  </si>
-  <si>
-    <t>Face13_D51_S30_l.png</t>
-  </si>
-  <si>
-    <t>Face08_D51_S20_l.png</t>
-  </si>
-  <si>
-    <t>Face03_D51_S25_l.png</t>
-  </si>
-  <si>
-    <t>Face06_D51_S20_l.png</t>
-  </si>
-  <si>
-    <t>Face01_D51_S30_l.png</t>
-  </si>
-  <si>
-    <t>Face02_D51_S25_l.png</t>
-  </si>
-  <si>
-    <t>Face09_D64_S30_l.png</t>
-  </si>
-  <si>
-    <t>Face04_D64_S20_l.png</t>
-  </si>
-  <si>
-    <t>Face16_D64_S30_l.png</t>
-  </si>
-  <si>
-    <t>Face10_D64_S25_l.png</t>
-  </si>
-  <si>
-    <t>Face05_D64_S20_l.png</t>
-  </si>
-  <si>
-    <t>Face07_D64_S25_l.png</t>
-  </si>
-  <si>
-    <t>Fixation_D80_l.png</t>
-  </si>
-  <si>
-    <t>Face17_D80_S30_l.png</t>
-  </si>
-  <si>
-    <t>Face15_D80_S20_l.png</t>
-  </si>
-  <si>
-    <t>Face12_D80_S20_l.png</t>
-  </si>
-  <si>
-    <t>Face14_D80_S30_l.png</t>
-  </si>
-  <si>
-    <t>Face18_D80_S25_l.png</t>
-  </si>
-  <si>
-    <t>Face11_D80_S25_l.png</t>
-  </si>
-  <si>
-    <t>Face11_D51_S30_l.png</t>
-  </si>
-  <si>
-    <t>Face10_D51_S20_l.png</t>
-  </si>
-  <si>
-    <t>Face03_D51_S30_l.png</t>
-  </si>
-  <si>
-    <t>Face05_D51_S25_l.png</t>
-  </si>
-  <si>
-    <t>Face08_D51_S25_l.png</t>
-  </si>
-  <si>
-    <t>Face01_D51_S20_l.png</t>
-  </si>
-  <si>
-    <t>Face13_D80_S20_l.png</t>
-  </si>
-  <si>
-    <t>Face14_D80_S20_l.png</t>
-  </si>
-  <si>
-    <t>Face09_D80_S25_l.png</t>
-  </si>
-  <si>
-    <t>Face12_D80_S30_l.png</t>
-  </si>
-  <si>
-    <t>Face15_D80_S30_l.png</t>
-  </si>
-  <si>
-    <t>Face02_D80_S25_l.png</t>
-  </si>
-  <si>
-    <t>Face16_D64_S25_l.png</t>
-  </si>
-  <si>
-    <t>Face07_D64_S20_l.png</t>
-  </si>
-  <si>
-    <t>Face17_D64_S25_l.png</t>
-  </si>
-  <si>
-    <t>Face06_D64_S30_l.png</t>
-  </si>
-  <si>
-    <t>Face18_D64_S20_l.png</t>
-  </si>
-  <si>
-    <t>Face04_D64_S30_l.png</t>
-  </si>
-  <si>
-    <t>Face07_D80_S25_l.png</t>
-  </si>
-  <si>
-    <t>Face02_D80_S30_l.png</t>
-  </si>
-  <si>
-    <t>Face17_D80_S25_l.png</t>
-  </si>
-  <si>
-    <t>Face11_D80_S20_l.png</t>
-  </si>
-  <si>
-    <t>Face04_D80_S30_l.png</t>
-  </si>
-  <si>
-    <t>Face03_D80_S20_l.png</t>
-  </si>
-  <si>
-    <t>Face10_D64_S20_l.png</t>
-  </si>
-  <si>
-    <t>Face12_D64_S20_l.png</t>
-  </si>
-  <si>
-    <t>Face13_D64_S25_l.png</t>
-  </si>
-  <si>
-    <t>Face01_D64_S25_l.png</t>
-  </si>
-  <si>
-    <t>Face05_D64_S30_l.png</t>
-  </si>
-  <si>
-    <t>Face15_D64_S30_l.png</t>
-  </si>
-  <si>
-    <t>Face09_D51_S25_l.png</t>
-  </si>
-  <si>
-    <t>Face16_D51_S20_l.png</t>
-  </si>
-  <si>
-    <t>Face18_D51_S20_l.png</t>
-  </si>
-  <si>
-    <t>Face14_D51_S25_l.png</t>
-  </si>
-  <si>
-    <t>Face06_D51_S30_l.png</t>
-  </si>
-  <si>
-    <t>Face08_D51_S30_l.png</t>
-  </si>
-  <si>
-    <t>Face02_D80_S20_l.png</t>
-  </si>
-  <si>
-    <t>Face05_D80_S25_l.png</t>
-  </si>
-  <si>
-    <t>Face01_D80_S25_l.png</t>
-  </si>
-  <si>
-    <t>Face04_D80_S20_l.png</t>
-  </si>
-  <si>
-    <t>Face13_D80_S30_l.png</t>
-  </si>
-  <si>
-    <t>Face06_D80_S30_l.png</t>
-  </si>
-  <si>
-    <t>Face10_D51_S25_l.png</t>
-  </si>
-  <si>
-    <t>Face11_D51_S25_l.png</t>
-  </si>
-  <si>
-    <t>Face18_D51_S30_l.png</t>
-  </si>
-  <si>
-    <t>Face17_D51_S30_l.png</t>
-  </si>
-  <si>
-    <t>Face12_D51_S20_l.png</t>
-  </si>
-  <si>
-    <t>Face07_D51_S20_l.png</t>
-  </si>
-  <si>
-    <t>Face03_D64_S30_l.png</t>
-  </si>
-  <si>
-    <t>Face14_D64_S30_l.png</t>
-  </si>
-  <si>
-    <t>Face08_D64_S25_l.png</t>
-  </si>
-  <si>
-    <t>Face09_D64_S25_l.png</t>
-  </si>
-  <si>
-    <t>Face15_D64_S20_l.png</t>
-  </si>
-  <si>
-    <t>Face16_D64_S20_l.png</t>
+    <t>Fixation_D69_l.png</t>
+  </si>
+  <si>
+    <t>Fixation_D55_l.png</t>
+  </si>
+  <si>
+    <t>Face13_D55_S31_l.png</t>
+  </si>
+  <si>
+    <t>Face08_D55_S20_l.png</t>
+  </si>
+  <si>
+    <t>Face03_D55_S25_l.png</t>
+  </si>
+  <si>
+    <t>Face06_D55_S20_l.png</t>
+  </si>
+  <si>
+    <t>Face01_D55_S31_l.png</t>
+  </si>
+  <si>
+    <t>Face02_D55_S25_l.png</t>
+  </si>
+  <si>
+    <t>Face09_D69_S31_l.png</t>
+  </si>
+  <si>
+    <t>Face04_D69_S20_l.png</t>
+  </si>
+  <si>
+    <t>Face16_D69_S31_l.png</t>
+  </si>
+  <si>
+    <t>Face10_D69_S25_l.png</t>
+  </si>
+  <si>
+    <t>Face05_D69_S20_l.png</t>
+  </si>
+  <si>
+    <t>Face07_D69_S25_l.png</t>
+  </si>
+  <si>
+    <t>Fixation_D86_l.png</t>
+  </si>
+  <si>
+    <t>Face17_D86_S31_l.png</t>
+  </si>
+  <si>
+    <t>Face15_D86_S20_l.png</t>
+  </si>
+  <si>
+    <t>Face12_D86_S20_l.png</t>
+  </si>
+  <si>
+    <t>Face14_D86_S31_l.png</t>
+  </si>
+  <si>
+    <t>Face18_D86_S25_l.png</t>
+  </si>
+  <si>
+    <t>Face11_D86_S25_l.png</t>
+  </si>
+  <si>
+    <t>Face11_D55_S31_l.png</t>
+  </si>
+  <si>
+    <t>Face10_D55_S20_l.png</t>
+  </si>
+  <si>
+    <t>Face03_D55_S31_l.png</t>
+  </si>
+  <si>
+    <t>Face05_D55_S25_l.png</t>
+  </si>
+  <si>
+    <t>Face08_D55_S25_l.png</t>
+  </si>
+  <si>
+    <t>Face01_D55_S20_l.png</t>
+  </si>
+  <si>
+    <t>Face13_D86_S20_l.png</t>
+  </si>
+  <si>
+    <t>Face14_D86_S20_l.png</t>
+  </si>
+  <si>
+    <t>Face09_D86_S25_l.png</t>
+  </si>
+  <si>
+    <t>Face12_D86_S31_l.png</t>
+  </si>
+  <si>
+    <t>Face15_D86_S31_l.png</t>
+  </si>
+  <si>
+    <t>Face02_D86_S25_l.png</t>
+  </si>
+  <si>
+    <t>Face16_D69_S25_l.png</t>
+  </si>
+  <si>
+    <t>Face07_D69_S20_l.png</t>
+  </si>
+  <si>
+    <t>Face17_D69_S25_l.png</t>
+  </si>
+  <si>
+    <t>Face06_D69_S31_l.png</t>
+  </si>
+  <si>
+    <t>Face18_D69_S20_l.png</t>
+  </si>
+  <si>
+    <t>Face04_D69_S31_l.png</t>
+  </si>
+  <si>
+    <t>Face07_D86_S25_l.png</t>
+  </si>
+  <si>
+    <t>Face02_D86_S31_l.png</t>
+  </si>
+  <si>
+    <t>Face17_D86_S25_l.png</t>
+  </si>
+  <si>
+    <t>Face11_D86_S20_l.png</t>
+  </si>
+  <si>
+    <t>Face04_D86_S31_l.png</t>
+  </si>
+  <si>
+    <t>Face03_D86_S20_l.png</t>
+  </si>
+  <si>
+    <t>Face10_D69_S20_l.png</t>
+  </si>
+  <si>
+    <t>Face12_D69_S20_l.png</t>
+  </si>
+  <si>
+    <t>Face13_D69_S25_l.png</t>
+  </si>
+  <si>
+    <t>Face01_D69_S25_l.png</t>
+  </si>
+  <si>
+    <t>Face05_D69_S31_l.png</t>
+  </si>
+  <si>
+    <t>Face15_D69_S31_l.png</t>
+  </si>
+  <si>
+    <t>Face09_D55_S25_l.png</t>
+  </si>
+  <si>
+    <t>Face16_D55_S20_l.png</t>
+  </si>
+  <si>
+    <t>Face18_D55_S20_l.png</t>
+  </si>
+  <si>
+    <t>Face14_D55_S25_l.png</t>
+  </si>
+  <si>
+    <t>Face06_D55_S31_l.png</t>
+  </si>
+  <si>
+    <t>Face08_D55_S31_l.png</t>
+  </si>
+  <si>
+    <t>Face02_D86_S20_l.png</t>
+  </si>
+  <si>
+    <t>Face05_D86_S25_l.png</t>
+  </si>
+  <si>
+    <t>Face01_D86_S25_l.png</t>
+  </si>
+  <si>
+    <t>Face04_D86_S20_l.png</t>
+  </si>
+  <si>
+    <t>Face13_D86_S31_l.png</t>
+  </si>
+  <si>
+    <t>Face06_D86_S31_l.png</t>
+  </si>
+  <si>
+    <t>Face10_D55_S25_l.png</t>
+  </si>
+  <si>
+    <t>Face11_D55_S25_l.png</t>
+  </si>
+  <si>
+    <t>Face18_D55_S31_l.png</t>
+  </si>
+  <si>
+    <t>Face17_D55_S31_l.png</t>
+  </si>
+  <si>
+    <t>Face12_D55_S20_l.png</t>
+  </si>
+  <si>
+    <t>Face07_D55_S20_l.png</t>
+  </si>
+  <si>
+    <t>Face03_D69_S31_l.png</t>
+  </si>
+  <si>
+    <t>Face14_D69_S31_l.png</t>
+  </si>
+  <si>
+    <t>Face08_D69_S25_l.png</t>
+  </si>
+  <si>
+    <t>Face09_D69_S25_l.png</t>
+  </si>
+  <si>
+    <t>Face15_D69_S20_l.png</t>
+  </si>
+  <si>
+    <t>Face16_D69_S20_l.png</t>
   </si>
   <si>
     <t>Filename_Right</t>
   </si>
   <si>
-    <t>Fixation_D64_r.png</t>
-  </si>
-  <si>
-    <t>Fixation_D51_r.png</t>
-  </si>
-  <si>
-    <t>Face13_D51_S30_r.png</t>
-  </si>
-  <si>
-    <t>Face08_D51_S20_r.png</t>
-  </si>
-  <si>
-    <t>Face03_D51_S25_r.png</t>
-  </si>
-  <si>
-    <t>Face06_D51_S20_r.png</t>
-  </si>
-  <si>
-    <t>Face01_D51_S30_r.png</t>
-  </si>
-  <si>
-    <t>Face02_D51_S25_r.png</t>
-  </si>
-  <si>
-    <t>Face09_D64_S30_r.png</t>
-  </si>
-  <si>
-    <t>Face04_D64_S20_r.png</t>
-  </si>
-  <si>
-    <t>Face16_D64_S30_r.png</t>
-  </si>
-  <si>
-    <t>Face10_D64_S25_r.png</t>
-  </si>
-  <si>
-    <t>Face05_D64_S20_r.png</t>
-  </si>
-  <si>
-    <t>Face07_D64_S25_r.png</t>
-  </si>
-  <si>
-    <t>Fixation_D80_r.png</t>
-  </si>
-  <si>
-    <t>Face17_D80_S30_r.png</t>
-  </si>
-  <si>
-    <t>Face15_D80_S20_r.png</t>
-  </si>
-  <si>
-    <t>Face12_D80_S20_r.png</t>
-  </si>
-  <si>
-    <t>Face14_D80_S30_r.png</t>
-  </si>
-  <si>
-    <t>Face18_D80_S25_r.png</t>
-  </si>
-  <si>
-    <t>Face11_D80_S25_r.png</t>
-  </si>
-  <si>
-    <t>Face11_D51_S30_r.png</t>
-  </si>
-  <si>
-    <t>Face10_D51_S20_r.png</t>
-  </si>
-  <si>
-    <t>Face03_D51_S30_r.png</t>
-  </si>
-  <si>
-    <t>Face05_D51_S25_r.png</t>
-  </si>
-  <si>
-    <t>Face08_D51_S25_r.png</t>
-  </si>
-  <si>
-    <t>Face01_D51_S20_r.png</t>
-  </si>
-  <si>
-    <t>Face13_D80_S20_r.png</t>
-  </si>
-  <si>
-    <t>Face14_D80_S20_r.png</t>
-  </si>
-  <si>
-    <t>Face09_D80_S25_r.png</t>
-  </si>
-  <si>
-    <t>Face12_D80_S30_r.png</t>
-  </si>
-  <si>
-    <t>Face15_D80_S30_r.png</t>
-  </si>
-  <si>
-    <t>Face02_D80_S25_r.png</t>
-  </si>
-  <si>
-    <t>Face16_D64_S25_r.png</t>
-  </si>
-  <si>
-    <t>Face07_D64_S20_r.png</t>
-  </si>
-  <si>
-    <t>Face17_D64_S25_r.png</t>
-  </si>
-  <si>
-    <t>Face06_D64_S30_r.png</t>
-  </si>
-  <si>
-    <t>Face18_D64_S20_r.png</t>
-  </si>
-  <si>
-    <t>Face04_D64_S30_r.png</t>
-  </si>
-  <si>
-    <t>Face07_D80_S25_r.png</t>
-  </si>
-  <si>
-    <t>Face02_D80_S30_r.png</t>
-  </si>
-  <si>
-    <t>Face17_D80_S25_r.png</t>
-  </si>
-  <si>
-    <t>Face11_D80_S20_r.png</t>
-  </si>
-  <si>
-    <t>Face04_D80_S30_r.png</t>
-  </si>
-  <si>
-    <t>Face03_D80_S20_r.png</t>
-  </si>
-  <si>
-    <t>Face10_D64_S20_r.png</t>
-  </si>
-  <si>
-    <t>Face12_D64_S20_r.png</t>
-  </si>
-  <si>
-    <t>Face13_D64_S25_r.png</t>
-  </si>
-  <si>
-    <t>Face01_D64_S25_r.png</t>
-  </si>
-  <si>
-    <t>Face05_D64_S30_r.png</t>
-  </si>
-  <si>
-    <t>Face15_D64_S30_r.png</t>
-  </si>
-  <si>
-    <t>Face09_D51_S25_r.png</t>
-  </si>
-  <si>
-    <t>Face16_D51_S20_r.png</t>
-  </si>
-  <si>
-    <t>Face18_D51_S20_r.png</t>
-  </si>
-  <si>
-    <t>Face14_D51_S25_r.png</t>
-  </si>
-  <si>
-    <t>Face06_D51_S30_r.png</t>
-  </si>
-  <si>
-    <t>Face08_D51_S30_r.png</t>
-  </si>
-  <si>
-    <t>Face02_D80_S20_r.png</t>
-  </si>
-  <si>
-    <t>Face05_D80_S25_r.png</t>
-  </si>
-  <si>
-    <t>Face01_D80_S25_r.png</t>
-  </si>
-  <si>
-    <t>Face04_D80_S20_r.png</t>
-  </si>
-  <si>
-    <t>Face13_D80_S30_r.png</t>
-  </si>
-  <si>
-    <t>Face06_D80_S30_r.png</t>
-  </si>
-  <si>
-    <t>Face10_D51_S25_r.png</t>
-  </si>
-  <si>
-    <t>Face11_D51_S25_r.png</t>
-  </si>
-  <si>
-    <t>Face18_D51_S30_r.png</t>
-  </si>
-  <si>
-    <t>Face17_D51_S30_r.png</t>
-  </si>
-  <si>
-    <t>Face12_D51_S20_r.png</t>
-  </si>
-  <si>
-    <t>Face07_D51_S20_r.png</t>
-  </si>
-  <si>
-    <t>Face03_D64_S30_r.png</t>
-  </si>
-  <si>
-    <t>Face14_D64_S30_r.png</t>
-  </si>
-  <si>
-    <t>Face08_D64_S25_r.png</t>
-  </si>
-  <si>
-    <t>Face09_D64_S25_r.png</t>
-  </si>
-  <si>
-    <t>Face15_D64_S20_r.png</t>
-  </si>
-  <si>
-    <t>Face16_D64_S20_r.png</t>
+    <t>Fixation_D69_r.png</t>
+  </si>
+  <si>
+    <t>Fixation_D55_r.png</t>
+  </si>
+  <si>
+    <t>Face13_D55_S31_r.png</t>
+  </si>
+  <si>
+    <t>Face08_D55_S20_r.png</t>
+  </si>
+  <si>
+    <t>Face03_D55_S25_r.png</t>
+  </si>
+  <si>
+    <t>Face06_D55_S20_r.png</t>
+  </si>
+  <si>
+    <t>Face01_D55_S31_r.png</t>
+  </si>
+  <si>
+    <t>Face02_D55_S25_r.png</t>
+  </si>
+  <si>
+    <t>Face09_D69_S31_r.png</t>
+  </si>
+  <si>
+    <t>Face04_D69_S20_r.png</t>
+  </si>
+  <si>
+    <t>Face16_D69_S31_r.png</t>
+  </si>
+  <si>
+    <t>Face10_D69_S25_r.png</t>
+  </si>
+  <si>
+    <t>Face05_D69_S20_r.png</t>
+  </si>
+  <si>
+    <t>Face07_D69_S25_r.png</t>
+  </si>
+  <si>
+    <t>Fixation_D86_r.png</t>
+  </si>
+  <si>
+    <t>Face17_D86_S31_r.png</t>
+  </si>
+  <si>
+    <t>Face15_D86_S20_r.png</t>
+  </si>
+  <si>
+    <t>Face12_D86_S20_r.png</t>
+  </si>
+  <si>
+    <t>Face14_D86_S31_r.png</t>
+  </si>
+  <si>
+    <t>Face18_D86_S25_r.png</t>
+  </si>
+  <si>
+    <t>Face11_D86_S25_r.png</t>
+  </si>
+  <si>
+    <t>Face11_D55_S31_r.png</t>
+  </si>
+  <si>
+    <t>Face10_D55_S20_r.png</t>
+  </si>
+  <si>
+    <t>Face03_D55_S31_r.png</t>
+  </si>
+  <si>
+    <t>Face05_D55_S25_r.png</t>
+  </si>
+  <si>
+    <t>Face08_D55_S25_r.png</t>
+  </si>
+  <si>
+    <t>Face01_D55_S20_r.png</t>
+  </si>
+  <si>
+    <t>Face13_D86_S20_r.png</t>
+  </si>
+  <si>
+    <t>Face14_D86_S20_r.png</t>
+  </si>
+  <si>
+    <t>Face09_D86_S25_r.png</t>
+  </si>
+  <si>
+    <t>Face12_D86_S31_r.png</t>
+  </si>
+  <si>
+    <t>Face15_D86_S31_r.png</t>
+  </si>
+  <si>
+    <t>Face02_D86_S25_r.png</t>
+  </si>
+  <si>
+    <t>Face16_D69_S25_r.png</t>
+  </si>
+  <si>
+    <t>Face07_D69_S20_r.png</t>
+  </si>
+  <si>
+    <t>Face17_D69_S25_r.png</t>
+  </si>
+  <si>
+    <t>Face06_D69_S31_r.png</t>
+  </si>
+  <si>
+    <t>Face18_D69_S20_r.png</t>
+  </si>
+  <si>
+    <t>Face04_D69_S31_r.png</t>
+  </si>
+  <si>
+    <t>Face07_D86_S25_r.png</t>
+  </si>
+  <si>
+    <t>Face02_D86_S31_r.png</t>
+  </si>
+  <si>
+    <t>Face17_D86_S25_r.png</t>
+  </si>
+  <si>
+    <t>Face11_D86_S20_r.png</t>
+  </si>
+  <si>
+    <t>Face04_D86_S31_r.png</t>
+  </si>
+  <si>
+    <t>Face03_D86_S20_r.png</t>
+  </si>
+  <si>
+    <t>Face10_D69_S20_r.png</t>
+  </si>
+  <si>
+    <t>Face12_D69_S20_r.png</t>
+  </si>
+  <si>
+    <t>Face13_D69_S25_r.png</t>
+  </si>
+  <si>
+    <t>Face01_D69_S25_r.png</t>
+  </si>
+  <si>
+    <t>Face05_D69_S31_r.png</t>
+  </si>
+  <si>
+    <t>Face15_D69_S31_r.png</t>
+  </si>
+  <si>
+    <t>Face09_D55_S25_r.png</t>
+  </si>
+  <si>
+    <t>Face16_D55_S20_r.png</t>
+  </si>
+  <si>
+    <t>Face18_D55_S20_r.png</t>
+  </si>
+  <si>
+    <t>Face14_D55_S25_r.png</t>
+  </si>
+  <si>
+    <t>Face06_D55_S31_r.png</t>
+  </si>
+  <si>
+    <t>Face08_D55_S31_r.png</t>
+  </si>
+  <si>
+    <t>Face02_D86_S20_r.png</t>
+  </si>
+  <si>
+    <t>Face05_D86_S25_r.png</t>
+  </si>
+  <si>
+    <t>Face01_D86_S25_r.png</t>
+  </si>
+  <si>
+    <t>Face04_D86_S20_r.png</t>
+  </si>
+  <si>
+    <t>Face13_D86_S31_r.png</t>
+  </si>
+  <si>
+    <t>Face06_D86_S31_r.png</t>
+  </si>
+  <si>
+    <t>Face10_D55_S25_r.png</t>
+  </si>
+  <si>
+    <t>Face11_D55_S25_r.png</t>
+  </si>
+  <si>
+    <t>Face18_D55_S31_r.png</t>
+  </si>
+  <si>
+    <t>Face17_D55_S31_r.png</t>
+  </si>
+  <si>
+    <t>Face12_D55_S20_r.png</t>
+  </si>
+  <si>
+    <t>Face07_D55_S20_r.png</t>
+  </si>
+  <si>
+    <t>Face03_D69_S31_r.png</t>
+  </si>
+  <si>
+    <t>Face14_D69_S31_r.png</t>
+  </si>
+  <si>
+    <t>Face08_D69_S25_r.png</t>
+  </si>
+  <si>
+    <t>Face09_D69_S25_r.png</t>
+  </si>
+  <si>
+    <t>Face15_D69_S20_r.png</t>
+  </si>
+  <si>
+    <t>Face16_D69_S20_r.png</t>
   </si>
   <si>
     <t>Is_Repeat</t>
@@ -714,13 +714,13 @@
     <t>Distance</t>
   </si>
   <si>
-    <t>D64</t>
-  </si>
-  <si>
-    <t>D51</t>
-  </si>
-  <si>
-    <t>D80</t>
+    <t>D69</t>
+  </si>
+  <si>
+    <t>D55</t>
+  </si>
+  <si>
+    <t>D86</t>
   </si>
   <si>
     <t>Face</t>
@@ -786,7 +786,7 @@
     <t>Size</t>
   </si>
   <si>
-    <t>S30</t>
+    <t>S31</t>
   </si>
   <si>
     <t>S20</t>
